--- a/data/trans_orig/P1435_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2012-Provincia-trans_orig.xlsx
@@ -1043,12 +1043,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>95,68%</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1413,12 +1413,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,51%</t>
         </is>
       </c>
     </row>
@@ -1603,12 +1603,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -1672,12 +1672,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,23%</t>
         </is>
       </c>
     </row>
@@ -1883,12 +1883,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>12,6%</t>
         </is>
       </c>
     </row>
@@ -1952,12 +1952,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>95,12%</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,69%</t>
         </is>
       </c>
     </row>
@@ -2232,12 +2232,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2253,12 +2253,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>95,49%</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2464,12 +2464,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -2512,12 +2512,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,53%</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2723,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2813,12 +2813,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>99,12%</t>
         </is>
       </c>
     </row>
@@ -3003,12 +3003,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3024,12 +3024,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -3072,12 +3072,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3093,12 +3093,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,79%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P1435_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2012-Provincia-trans_orig.xlsx
@@ -1043,12 +1043,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,79%</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1413,12 +1413,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,48%</t>
         </is>
       </c>
     </row>
@@ -1603,12 +1603,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -1672,12 +1672,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,27%</t>
         </is>
       </c>
     </row>
@@ -1883,12 +1883,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,29%</t>
         </is>
       </c>
     </row>
@@ -1952,12 +1952,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,14%</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -2232,12 +2232,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2253,12 +2253,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2464,12 +2464,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -2512,12 +2512,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>97,5%</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2723,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2813,12 +2813,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,03%</t>
         </is>
       </c>
     </row>
@@ -3003,12 +3003,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3024,12 +3024,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -3072,12 +3072,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3093,12 +3093,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
